--- a/output/StructureDefinition-NatlDir-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDir-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:08:13-05:00</t>
+    <t>2021-11-29T12:19:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDir-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDir-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDir-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDir-CareTeam.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-CareTeam</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-CareTeam</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -442,7 +442,7 @@
     <t>restriction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/usage-restriction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/usage-restriction}
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>alias</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/careteam-alias}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/careteam-alias}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/location-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/location-reference}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>service</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/healthcareservice-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/healthcareservice-reference}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/endpoint-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/endpoint-reference}
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/identifier-status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/identifier-status}
 </t>
   </si>
   <si>
@@ -727,7 +727,7 @@
     <t>CareTeam.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -1063,7 +1063,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
     <t>CareTeam.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Practitioner)
+    <t>Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner)
 string</t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDir-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDir-CareTeam.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-CareTeam</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-CareTeam</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -442,7 +442,7 @@
     <t>restriction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/usage-restriction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/usage-restriction}
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>alias</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/careteam-alias}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/careteam-alias}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/location-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/location-reference}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>service</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/healthcareservice-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/healthcareservice-reference}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/endpoint-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/endpoint-reference}
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/identifier-status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/identifier-status}
 </t>
   </si>
   <si>
@@ -727,7 +727,7 @@
     <t>CareTeam.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -1063,7 +1063,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
     <t>CareTeam.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner)
+    <t>Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner)
 string</t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDir-CareTeam.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-CareTeam</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-CareTeam</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -442,7 +442,7 @@
     <t>restriction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/usage-restriction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/usage-restriction}
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>alias</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/careteam-alias}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/careteam-alias}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/location-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/location-reference}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>service</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/healthcareservice-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/healthcareservice-reference}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/endpoint-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/endpoint-reference}
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/identifier-status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/identifier-status}
 </t>
   </si>
   <si>
@@ -727,7 +727,7 @@
     <t>CareTeam.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -1063,7 +1063,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
     <t>CareTeam.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner)
+    <t>Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner)
 string</t>
   </si>
   <si>
